--- a/dependencies/bi/taylorella/te_92-0972/script_dependents/DefiningSNPsGroupDesignations.xlsx
+++ b/dependencies/bi/taylorella/te_92-0972/script_dependents/DefiningSNPsGroupDesignations.xlsx
@@ -1,25 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10814"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/root/TStuber/Results/bi/taylorella/vsnp/te_atcc_35865/script_dependents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Q:\TStuber\Results\bi\taylorella\vsnp\te_92-0972\script_dependents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D93AE90-2E42-4842-A535-D71FF53C52CC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="54800" yWindow="10260" windowWidth="30880" windowHeight="16000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="54795" yWindow="10260" windowWidth="30885" windowHeight="16005"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150001"/>
+  <calcPr calcId="152511"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -28,28 +24,57 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Grouping</t>
   </si>
   <si>
     <t>Absolute position</t>
+  </si>
+  <si>
+    <t>Tequigenitalis-02-A</t>
+  </si>
+  <si>
+    <t>Tequigenitalis-02-B</t>
+  </si>
+  <si>
+    <t>Tequigenitalis-02-C</t>
+  </si>
+  <si>
+    <t>NZ_CP021060.1-1153797</t>
+  </si>
+  <si>
+    <t>NZ_CP021060.1-1376878</t>
+  </si>
+  <si>
+    <t>NZ_CP021060.1-1093368</t>
+  </si>
+  <si>
+    <t>Tequigenitalis-02-A1</t>
+  </si>
+  <si>
+    <t>Tequigenitalis-02-A2</t>
+  </si>
+  <si>
+    <t>NZ_CP021060.1-1497609</t>
+  </si>
+  <si>
+    <t>NZ_CP021060.1-1219767</t>
+  </si>
+  <si>
+    <t>NZ_CP021060.1-201956</t>
+  </si>
+  <si>
+    <t>Tequigenitalis-02-A3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="24" x14ac:knownFonts="1">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="23" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -521,133 +546,132 @@
   </borders>
   <cellStyleXfs count="115">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="115">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -757,10 +781,10 @@
     <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="103" xr:uid="{00000000-0005-0000-0000-00006B000000}"/>
-    <cellStyle name="Normal 3" xfId="102" xr:uid="{00000000-0005-0000-0000-00006C000000}"/>
+    <cellStyle name="Normal 2" xfId="103"/>
+    <cellStyle name="Normal 3" xfId="102"/>
     <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Note 2" xfId="104" xr:uid="{00000000-0005-0000-0000-00006E000000}"/>
+    <cellStyle name="Note 2" xfId="104"/>
     <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
     <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
@@ -1065,198 +1089,188 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B44"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B45"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="129" zoomScaleNormal="129" zoomScalePageLayoutView="129" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="20.1640625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="20.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.5703125" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2" s="5"/>
-      <c r="B2" s="4"/>
-    </row>
-    <row r="3" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A3" s="6"/>
-      <c r="B3"/>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4"/>
-      <c r="B4"/>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5"/>
-      <c r="B5"/>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6"/>
-      <c r="B6"/>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7"/>
-      <c r="B7"/>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8"/>
-      <c r="B8"/>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="4"/>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9"/>
-      <c r="B9"/>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10"/>
-      <c r="B10"/>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11"/>
-      <c r="B11"/>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12"/>
-      <c r="B12"/>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13"/>
-      <c r="B13"/>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14"/>
-      <c r="B14"/>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15"/>
-      <c r="B15"/>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16"/>
-      <c r="B16"/>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17"/>
-      <c r="B17"/>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18"/>
-      <c r="B18"/>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19"/>
-      <c r="B19"/>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20"/>
-      <c r="B20"/>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21"/>
-      <c r="B21"/>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22"/>
-      <c r="B22"/>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23"/>
-      <c r="B23"/>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24"/>
-      <c r="B24"/>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25"/>
-      <c r="B25"/>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26"/>
-      <c r="B26"/>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27"/>
-      <c r="B27"/>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28"/>
-      <c r="B28"/>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29"/>
-      <c r="B29"/>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30"/>
-      <c r="B30"/>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31"/>
-      <c r="B31"/>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32"/>
-      <c r="B32"/>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33"/>
-      <c r="B33"/>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34"/>
-      <c r="B34"/>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35"/>
-      <c r="B35"/>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36"/>
-      <c r="B36"/>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37"/>
-      <c r="B37"/>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38"/>
-      <c r="B38"/>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39"/>
-      <c r="B39"/>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40"/>
-      <c r="B40"/>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41"/>
-      <c r="B41"/>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42"/>
-      <c r="B42"/>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43"/>
-      <c r="B43"/>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44"/>
-      <c r="B44"/>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
